--- a/面试行程安排.xlsx
+++ b/面试行程安排.xlsx
@@ -145,6 +145,462 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>北京市海淀区中电信息大厦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号线人民大学站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>口出）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市海淀区竞技世界大厦（上地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市海淀区东北旺西路8号，中关村软件园19号楼IBM钻石大厦A座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上地六街数字传媒大厦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西北旺东路博彦科技大厦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车好多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIPKID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京朝阳区八里庄陈家林甲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里文化创意产业园</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市朝阳区酒仙桥路52号东方科技园3号楼301室（地铁14号线东风北桥站C2口出走10分钟左右）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日优藓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市东城区雍和大厦E座9层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东城区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东四十条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>94</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号亮点设计中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好大夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DREAM2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国际文创产业园</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>北京市海淀区西小口路</t>
     </r>
     <r>
@@ -287,461 +743,15 @@
       </rPr>
       <t>口）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京市海淀区中电信息大厦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>层（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号线人民大学站</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>口出）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市海淀区竞技世界大厦（上地）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市海淀区东北旺西路8号，中关村软件园19号楼IBM钻石大厦A座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上地六街数字传媒大厦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>西北旺东路博彦科技大厦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>座</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>层</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车好多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.06.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIPKID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京朝阳区八里庄陈家林甲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>尚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>里文化创意产业园</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>座</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.06.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市朝阳区酒仙桥路52号东方科技园3号楼301室（地铁14号线东风北桥站C2口出走10分钟左右）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日优藓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市东城区雍和大厦E座9层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>东城区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>东四十条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>94</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号亮点设计中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>座</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>层</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好大夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DREAM2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国际文创产业园</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1118,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1137,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -1157,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4">
         <v>0.41666666666666669</v>
@@ -1175,13 +1185,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4">
         <v>0.5</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
@@ -1192,7 +1202,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4">
         <v>0.64583333333333337</v>
@@ -1209,13 +1219,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4">
         <v>0.70833333333333337</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
@@ -1226,13 +1236,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6">
         <v>0.58333333333333337</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -1243,13 +1253,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4">
         <v>0.75</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
@@ -1260,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4">
         <v>0.41666666666666669</v>
@@ -1277,16 +1287,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4">
         <v>0.45833333333333331</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4">
@@ -1294,7 +1304,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4">
         <v>0.41666666666666669</v>
@@ -1311,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4">
         <v>0.45833333333333331</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
@@ -1328,7 +1338,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4">
         <v>0.625</v>
@@ -1345,7 +1355,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4">
         <v>0.45833333333333331</v>
@@ -1359,19 +1369,19 @@
     </row>
     <row r="14" spans="1:6" ht="28.8" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4">
         <v>0.58333333333333337</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.4">
@@ -1379,67 +1389,67 @@
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4">
         <v>0.66666666666666663</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4">
       <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C16" s="4">
         <v>0.4375</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.4">
       <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C17" s="4">
         <v>0.58333333333333337</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4">
       <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C18" s="4">
         <v>0.58333333333333337</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
